--- a/Documents/Tests Progress.xlsx
+++ b/Documents/Tests Progress.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyudmil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyudmil\Documents\GitHub\Additional-Ressources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Automated Tests Status" sheetId="1" r:id="rId1"/>
-    <sheet name="Manual Tests Status" sheetId="2" r:id="rId2"/>
+    <sheet name="Manual Tests Status" sheetId="2" r:id="rId1"/>
+    <sheet name="Automated Tests Status" sheetId="1" r:id="rId2"/>
+    <sheet name="Bugs by Module" sheetId="4" r:id="rId3"/>
+    <sheet name="Test Cases by Team Member" sheetId="3" r:id="rId4"/>
+    <sheet name="Test Framework Updates" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162912"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Module</t>
   </si>
@@ -119,6 +122,60 @@
   </si>
   <si>
     <t>Not Run</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Emilia Georgieva</t>
+  </si>
+  <si>
+    <t>Lyudmil Nikodomov</t>
+  </si>
+  <si>
+    <t>Nikola Bogomirov</t>
+  </si>
+  <si>
+    <t>Nikola Nenov</t>
+  </si>
+  <si>
+    <t>Plamen Paunov</t>
+  </si>
+  <si>
+    <t>Severity 1</t>
+  </si>
+  <si>
+    <t>Severity 2</t>
+  </si>
+  <si>
+    <t>Severity 3</t>
+  </si>
+  <si>
+    <t>Severity 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework Release - Week 15.01.2016 </t>
+  </si>
+  <si>
+    <t>Removed BaseFacade</t>
+  </si>
+  <si>
+    <t>Test Clean-Up and Class Clean-Up added to base test</t>
+  </si>
+  <si>
+    <t>Added new factories</t>
+  </si>
+  <si>
+    <t>KendGrid extension class created</t>
+  </si>
+  <si>
+    <t>Custom attribute "TestCaseId"</t>
+  </si>
+  <si>
+    <t>Week #7</t>
+  </si>
+  <si>
+    <t>Week #8</t>
   </si>
 </sst>
 </file>
@@ -142,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -831,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,45 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -979,32 +1003,255 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,36 +1262,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,170 +1289,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,10 +1635,947 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="133"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="130"/>
+      <c r="B3" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="145"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="131"/>
+      <c r="B4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="74">
+        <v>11</v>
+      </c>
+      <c r="G5" s="69">
+        <v>6</v>
+      </c>
+      <c r="H5" s="69">
+        <v>3</v>
+      </c>
+      <c r="I5" s="69">
+        <v>2</v>
+      </c>
+      <c r="J5" s="87">
+        <v>3</v>
+      </c>
+      <c r="K5" s="82">
+        <v>0</v>
+      </c>
+      <c r="L5" s="82">
+        <v>2</v>
+      </c>
+      <c r="M5" s="92">
+        <v>1</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="102"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="88">
+        <v>9</v>
+      </c>
+      <c r="K6" s="83">
+        <v>0</v>
+      </c>
+      <c r="L6" s="83">
+        <v>9</v>
+      </c>
+      <c r="M6" s="93">
+        <v>0</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="103"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="75">
+        <v>18</v>
+      </c>
+      <c r="G7" s="70">
+        <v>6</v>
+      </c>
+      <c r="H7" s="70">
+        <v>12</v>
+      </c>
+      <c r="I7" s="70">
+        <v>0</v>
+      </c>
+      <c r="J7" s="88"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="103"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="56">
+        <v>3</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0</v>
+      </c>
+      <c r="D8" s="50">
+        <v>3</v>
+      </c>
+      <c r="E8" s="57">
+        <v>0</v>
+      </c>
+      <c r="F8" s="75">
+        <v>11</v>
+      </c>
+      <c r="G8" s="70">
+        <v>0</v>
+      </c>
+      <c r="H8" s="70">
+        <v>6</v>
+      </c>
+      <c r="I8" s="70">
+        <v>5</v>
+      </c>
+      <c r="J8" s="88"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="103"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="56">
+        <v>2</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="50">
+        <v>0</v>
+      </c>
+      <c r="E9" s="57">
+        <v>0</v>
+      </c>
+      <c r="F9" s="75">
+        <v>9</v>
+      </c>
+      <c r="G9" s="70">
+        <v>3</v>
+      </c>
+      <c r="H9" s="70">
+        <v>3</v>
+      </c>
+      <c r="I9" s="70">
+        <v>4</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="103"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="75">
+        <v>11</v>
+      </c>
+      <c r="G10" s="70">
+        <v>0</v>
+      </c>
+      <c r="H10" s="70">
+        <v>10</v>
+      </c>
+      <c r="I10" s="70">
+        <v>1</v>
+      </c>
+      <c r="J10" s="88"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="103"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="75">
+        <v>11</v>
+      </c>
+      <c r="G11" s="70">
+        <v>11</v>
+      </c>
+      <c r="H11" s="70">
+        <v>0</v>
+      </c>
+      <c r="I11" s="70">
+        <v>0</v>
+      </c>
+      <c r="J11" s="88"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="103"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="75">
+        <v>14</v>
+      </c>
+      <c r="G12" s="70">
+        <v>0</v>
+      </c>
+      <c r="H12" s="70">
+        <v>8</v>
+      </c>
+      <c r="I12" s="70">
+        <v>6</v>
+      </c>
+      <c r="J12" s="88"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="103"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="75">
+        <v>3</v>
+      </c>
+      <c r="G13" s="70">
+        <v>0</v>
+      </c>
+      <c r="H13" s="70">
+        <v>3</v>
+      </c>
+      <c r="I13" s="70">
+        <v>0</v>
+      </c>
+      <c r="J13" s="88"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="103"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="88">
+        <v>4</v>
+      </c>
+      <c r="K14" s="83">
+        <v>0</v>
+      </c>
+      <c r="L14" s="83">
+        <v>4</v>
+      </c>
+      <c r="M14" s="93">
+        <v>0</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="103"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="75">
+        <v>10</v>
+      </c>
+      <c r="G15" s="70">
+        <v>0</v>
+      </c>
+      <c r="H15" s="70">
+        <v>6</v>
+      </c>
+      <c r="I15" s="70">
+        <v>4</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="103"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="88">
+        <v>3</v>
+      </c>
+      <c r="K16" s="83">
+        <v>0</v>
+      </c>
+      <c r="L16" s="83">
+        <v>3</v>
+      </c>
+      <c r="M16" s="93">
+        <v>0</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="103"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="75">
+        <v>13</v>
+      </c>
+      <c r="G17" s="70">
+        <v>0</v>
+      </c>
+      <c r="H17" s="70">
+        <v>12</v>
+      </c>
+      <c r="I17" s="70">
+        <v>1</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="103"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="75">
+        <v>5</v>
+      </c>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70">
+        <v>0</v>
+      </c>
+      <c r="I18" s="70">
+        <v>0</v>
+      </c>
+      <c r="J18" s="88">
+        <v>13</v>
+      </c>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83">
+        <v>2</v>
+      </c>
+      <c r="M18" s="93">
+        <v>1</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="103"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="56">
+        <v>18</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
+      <c r="D19" s="50">
+        <v>18</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="103"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="75">
+        <v>24</v>
+      </c>
+      <c r="G20" s="70">
+        <v>4</v>
+      </c>
+      <c r="H20" s="70">
+        <v>15</v>
+      </c>
+      <c r="I20" s="70">
+        <v>5</v>
+      </c>
+      <c r="J20" s="88">
+        <v>2</v>
+      </c>
+      <c r="K20" s="83">
+        <v>0</v>
+      </c>
+      <c r="L20" s="83">
+        <v>1</v>
+      </c>
+      <c r="M20" s="93">
+        <v>1</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="103"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="73">
+        <v>8</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68">
+        <v>1</v>
+      </c>
+      <c r="I21" s="68">
+        <v>2</v>
+      </c>
+      <c r="J21" s="89">
+        <v>8</v>
+      </c>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84">
+        <v>4</v>
+      </c>
+      <c r="M21" s="94">
+        <v>4</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="104"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="59">
+        <v>11</v>
+      </c>
+      <c r="C22" s="51">
+        <v>0</v>
+      </c>
+      <c r="D22" s="51">
+        <v>11</v>
+      </c>
+      <c r="E22" s="60">
+        <v>0</v>
+      </c>
+      <c r="F22" s="76">
+        <v>27</v>
+      </c>
+      <c r="G22" s="71">
+        <v>27</v>
+      </c>
+      <c r="H22" s="71">
+        <v>20</v>
+      </c>
+      <c r="I22" s="71">
+        <v>7</v>
+      </c>
+      <c r="J22" s="90">
+        <v>5</v>
+      </c>
+      <c r="K22" s="85">
+        <v>5</v>
+      </c>
+      <c r="L22" s="85">
+        <v>5</v>
+      </c>
+      <c r="M22" s="95">
+        <v>0</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="105"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="76">
+        <v>3</v>
+      </c>
+      <c r="G23" s="71">
+        <v>0</v>
+      </c>
+      <c r="H23" s="71">
+        <v>3</v>
+      </c>
+      <c r="I23" s="71">
+        <v>0</v>
+      </c>
+      <c r="J23" s="90">
+        <v>4</v>
+      </c>
+      <c r="K23" s="85">
+        <v>0</v>
+      </c>
+      <c r="L23" s="85">
+        <v>4</v>
+      </c>
+      <c r="M23" s="95">
+        <v>0</v>
+      </c>
+      <c r="N23" s="36"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="105"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="90">
+        <v>9</v>
+      </c>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85">
+        <v>9</v>
+      </c>
+      <c r="M24" s="95">
+        <v>0</v>
+      </c>
+      <c r="N24" s="36"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="105"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="61">
+        <v>2</v>
+      </c>
+      <c r="C25" s="48">
+        <v>0</v>
+      </c>
+      <c r="D25" s="52">
+        <v>1</v>
+      </c>
+      <c r="E25" s="62">
+        <v>1</v>
+      </c>
+      <c r="F25" s="77">
+        <v>27</v>
+      </c>
+      <c r="G25" s="72">
+        <v>0</v>
+      </c>
+      <c r="H25" s="72">
+        <v>27</v>
+      </c>
+      <c r="I25" s="72">
+        <v>0</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="106"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="73">
+        <v>10</v>
+      </c>
+      <c r="G26" s="68">
+        <v>0</v>
+      </c>
+      <c r="H26" s="68">
+        <v>10</v>
+      </c>
+      <c r="I26" s="68">
+        <v>0</v>
+      </c>
+      <c r="J26" s="89">
+        <v>63</v>
+      </c>
+      <c r="K26" s="84">
+        <v>0</v>
+      </c>
+      <c r="L26" s="84">
+        <v>63</v>
+      </c>
+      <c r="M26" s="94">
+        <v>0</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="104"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="45">
+        <f>SUM(B5:B26)</f>
+        <v>36</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <f>SUM(D5:D26)</f>
+        <v>33</v>
+      </c>
+      <c r="E28" s="6">
+        <f>SUM(E5:E26)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <f>SUM(F5:F26)</f>
+        <v>215</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <f>SUM(H5:H26)</f>
+        <v>139</v>
+      </c>
+      <c r="I28" s="6">
+        <f>SUM(I5:I26)</f>
+        <v>37</v>
+      </c>
+      <c r="J28" s="6">
+        <f>SUM(J5:J26)</f>
+        <v>123</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
+        <f>SUM(L5:L26)</f>
+        <v>106</v>
+      </c>
+      <c r="M28" s="6">
+        <f>SUM(M5:M26)</f>
+        <v>7</v>
+      </c>
+      <c r="N28" s="6">
+        <f>SUM(N5:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
+        <f>SUM(P5:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <f>SUM(Q5:Q26)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -1570,757 +2592,757 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="133"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34" t="s">
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="147"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="44">
+      <c r="B5" s="40"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="31">
         <v>11</v>
       </c>
-      <c r="G5" s="135">
-        <v>0</v>
-      </c>
-      <c r="H5" s="135">
-        <v>0</v>
-      </c>
-      <c r="I5" s="140">
-        <v>0</v>
-      </c>
-      <c r="J5" s="45">
+      <c r="G5" s="108">
+        <v>0</v>
+      </c>
+      <c r="H5" s="108">
+        <v>0</v>
+      </c>
+      <c r="I5" s="113">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
         <v>3</v>
       </c>
-      <c r="K5" s="109">
-        <v>0</v>
-      </c>
-      <c r="L5" s="109">
-        <v>0</v>
-      </c>
-      <c r="M5" s="119">
-        <v>0</v>
-      </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="129"/>
+      <c r="K5" s="82">
+        <v>0</v>
+      </c>
+      <c r="L5" s="82">
+        <v>0</v>
+      </c>
+      <c r="M5" s="92">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="141"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="16">
         <v>9</v>
       </c>
-      <c r="K6" s="110">
-        <v>0</v>
-      </c>
-      <c r="L6" s="110">
-        <v>0</v>
-      </c>
-      <c r="M6" s="120">
+      <c r="K6" s="83">
+        <v>0</v>
+      </c>
+      <c r="L6" s="83">
+        <v>0</v>
+      </c>
+      <c r="M6" s="93">
         <v>0</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="130"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="13">
         <v>18</v>
       </c>
-      <c r="G7" s="136">
-        <v>0</v>
-      </c>
-      <c r="H7" s="136">
-        <v>0</v>
-      </c>
-      <c r="I7" s="141">
+      <c r="G7" s="109">
+        <v>0</v>
+      </c>
+      <c r="H7" s="109">
+        <v>0</v>
+      </c>
+      <c r="I7" s="114">
         <v>0</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="120"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="130"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="65">
         <v>2</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="65">
         <v>2</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="57">
         <v>0</v>
       </c>
       <c r="F8" s="13">
         <v>11</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="109">
         <v>3</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="109">
         <v>3</v>
       </c>
-      <c r="I8" s="141">
+      <c r="I8" s="114">
         <v>0</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="120"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="130"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="41">
         <v>2</v>
       </c>
-      <c r="C9" s="92">
-        <v>0</v>
-      </c>
-      <c r="D9" s="92">
-        <v>0</v>
-      </c>
-      <c r="E9" s="75">
+      <c r="C9" s="65">
+        <v>0</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0</v>
+      </c>
+      <c r="E9" s="57">
         <v>0</v>
       </c>
       <c r="F9" s="13">
         <v>9</v>
       </c>
-      <c r="G9" s="136">
-        <v>0</v>
-      </c>
-      <c r="H9" s="136">
-        <v>0</v>
-      </c>
-      <c r="I9" s="141">
+      <c r="G9" s="109">
+        <v>0</v>
+      </c>
+      <c r="H9" s="109">
+        <v>0</v>
+      </c>
+      <c r="I9" s="114">
         <v>0</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="120"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="93"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="130"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="75"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="13">
         <v>11</v>
       </c>
-      <c r="G10" s="136">
+      <c r="G10" s="109">
         <v>9</v>
       </c>
-      <c r="H10" s="136">
+      <c r="H10" s="109">
         <v>9</v>
       </c>
-      <c r="I10" s="141">
+      <c r="I10" s="114">
         <v>0</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="120"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="130"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="75"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="13">
         <v>11</v>
       </c>
-      <c r="G11" s="136">
-        <v>0</v>
-      </c>
-      <c r="H11" s="136">
-        <v>0</v>
-      </c>
-      <c r="I11" s="141">
+      <c r="G11" s="109">
+        <v>0</v>
+      </c>
+      <c r="H11" s="109">
+        <v>0</v>
+      </c>
+      <c r="I11" s="114">
         <v>0</v>
       </c>
       <c r="J11" s="16"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="120"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="130"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="75"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="13">
         <v>14</v>
       </c>
-      <c r="G12" s="136">
+      <c r="G12" s="109">
         <v>9</v>
       </c>
-      <c r="H12" s="136">
+      <c r="H12" s="109">
         <v>6</v>
       </c>
-      <c r="I12" s="141">
+      <c r="I12" s="114">
         <v>3</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="120"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="130"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="103"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="13">
         <v>3</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="109">
         <v>3</v>
       </c>
-      <c r="H13" s="136">
+      <c r="H13" s="109">
         <v>3</v>
       </c>
-      <c r="I13" s="141">
+      <c r="I13" s="114">
         <v>0</v>
       </c>
       <c r="J13" s="16"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="120"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="130"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="103"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="75"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="141"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="16">
         <v>4</v>
       </c>
-      <c r="K14" s="110">
+      <c r="K14" s="83">
         <v>4</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="83">
         <v>4</v>
       </c>
-      <c r="M14" s="120">
+      <c r="M14" s="93">
         <v>0</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="130"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="103"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="75"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="13">
         <v>10</v>
       </c>
-      <c r="G15" s="136">
-        <v>0</v>
-      </c>
-      <c r="H15" s="136">
-        <v>0</v>
-      </c>
-      <c r="I15" s="141">
+      <c r="G15" s="109">
+        <v>0</v>
+      </c>
+      <c r="H15" s="109">
+        <v>0</v>
+      </c>
+      <c r="I15" s="114">
         <v>0</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="120"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="130"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="103"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="75"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="141"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="16">
         <v>3</v>
       </c>
-      <c r="K16" s="110">
-        <v>0</v>
-      </c>
-      <c r="L16" s="110">
-        <v>0</v>
-      </c>
-      <c r="M16" s="120">
+      <c r="K16" s="83">
+        <v>0</v>
+      </c>
+      <c r="L16" s="83">
+        <v>0</v>
+      </c>
+      <c r="M16" s="93">
         <v>0</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="130"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="103"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="75"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="13">
         <v>13</v>
       </c>
-      <c r="G17" s="136">
+      <c r="G17" s="109">
         <v>11</v>
       </c>
-      <c r="H17" s="136">
+      <c r="H17" s="109">
         <v>11</v>
       </c>
-      <c r="I17" s="141">
+      <c r="I17" s="114">
         <v>0</v>
       </c>
       <c r="J17" s="16"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="120"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="130"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="103"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="75"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="13">
-        <v>5</v>
-      </c>
-      <c r="G18" s="136">
-        <v>0</v>
-      </c>
-      <c r="H18" s="136">
-        <v>0</v>
-      </c>
-      <c r="I18" s="141">
+        <v>8</v>
+      </c>
+      <c r="G18" s="109">
+        <v>8</v>
+      </c>
+      <c r="H18" s="109">
+        <v>3</v>
+      </c>
+      <c r="I18" s="114">
         <v>0</v>
       </c>
       <c r="J18" s="16">
         <v>10</v>
       </c>
-      <c r="K18" s="110">
-        <v>0</v>
-      </c>
-      <c r="L18" s="110">
-        <v>0</v>
-      </c>
-      <c r="M18" s="120">
+      <c r="K18" s="83">
+        <v>0</v>
+      </c>
+      <c r="L18" s="83">
+        <v>0</v>
+      </c>
+      <c r="M18" s="93">
         <v>0</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="130"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="103"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="41">
         <v>18</v>
       </c>
-      <c r="C19" s="92">
+      <c r="C19" s="65">
         <v>18</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="65">
         <v>18</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="57">
         <v>0</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="141"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="114"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="120"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="130"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="103"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="75"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="13">
         <v>24</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="109">
         <v>20</v>
       </c>
-      <c r="H20" s="136">
+      <c r="H20" s="109">
         <v>15</v>
       </c>
-      <c r="I20" s="141">
+      <c r="I20" s="114">
         <v>5</v>
       </c>
       <c r="J20" s="16">
         <v>2</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="83">
         <v>2</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="83">
         <v>1</v>
       </c>
-      <c r="M20" s="120">
+      <c r="M20" s="93">
         <v>1</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="130"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="103"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="71"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="14">
         <v>8</v>
       </c>
-      <c r="G21" s="137">
+      <c r="G21" s="110">
         <v>6</v>
       </c>
-      <c r="H21" s="137">
+      <c r="H21" s="110">
         <v>4</v>
       </c>
-      <c r="I21" s="142">
+      <c r="I21" s="115">
         <v>2</v>
       </c>
       <c r="J21" s="17">
         <v>8</v>
       </c>
-      <c r="K21" s="111">
+      <c r="K21" s="84">
         <v>8</v>
       </c>
-      <c r="L21" s="111">
+      <c r="L21" s="84">
         <v>4</v>
       </c>
-      <c r="M21" s="121">
+      <c r="M21" s="94">
         <v>4</v>
       </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="131"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="104"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="56">
-        <v>22</v>
-      </c>
-      <c r="C22" s="93">
-        <v>0</v>
-      </c>
-      <c r="D22" s="93">
-        <v>0</v>
-      </c>
-      <c r="E22" s="78">
+      <c r="B22" s="43">
+        <v>11</v>
+      </c>
+      <c r="C22" s="66">
+        <v>11</v>
+      </c>
+      <c r="D22" s="66">
+        <v>11</v>
+      </c>
+      <c r="E22" s="60">
         <v>0</v>
       </c>
       <c r="F22" s="12">
-        <v>18</v>
-      </c>
-      <c r="G22" s="138">
-        <v>0</v>
-      </c>
-      <c r="H22" s="138">
-        <v>0</v>
-      </c>
-      <c r="I22" s="143">
+        <v>27</v>
+      </c>
+      <c r="G22" s="111">
+        <v>20</v>
+      </c>
+      <c r="H22" s="111">
+        <v>20</v>
+      </c>
+      <c r="I22" s="116">
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <v>1</v>
-      </c>
-      <c r="K22" s="112">
-        <v>0</v>
-      </c>
-      <c r="L22" s="112">
-        <v>0</v>
-      </c>
-      <c r="M22" s="122">
+        <v>5</v>
+      </c>
+      <c r="K22" s="85">
+        <v>5</v>
+      </c>
+      <c r="L22" s="85">
+        <v>5</v>
+      </c>
+      <c r="M22" s="95">
         <v>0</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="132"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="105"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="78"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="12">
         <v>3</v>
       </c>
-      <c r="G23" s="138">
-        <v>0</v>
-      </c>
-      <c r="H23" s="138">
+      <c r="G23" s="111">
+        <v>0</v>
+      </c>
+      <c r="H23" s="111">
         <v>3</v>
       </c>
-      <c r="I23" s="143">
+      <c r="I23" s="116">
         <v>0</v>
       </c>
       <c r="J23" s="15">
         <v>4</v>
       </c>
-      <c r="K23" s="112">
-        <v>0</v>
-      </c>
-      <c r="L23" s="112">
+      <c r="K23" s="85">
+        <v>0</v>
+      </c>
+      <c r="L23" s="85">
         <v>4</v>
       </c>
-      <c r="M23" s="122">
+      <c r="M23" s="95">
         <v>0</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="132"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="105"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="78"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="143"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="116"/>
       <c r="J24" s="15">
         <v>9</v>
       </c>
-      <c r="K24" s="112">
-        <v>0</v>
-      </c>
-      <c r="L24" s="112">
-        <v>0</v>
-      </c>
-      <c r="M24" s="122">
+      <c r="K24" s="85">
+        <v>0</v>
+      </c>
+      <c r="L24" s="85">
+        <v>0</v>
+      </c>
+      <c r="M24" s="95">
         <v>0</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="132"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="105"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -2329,76 +3351,76 @@
       <c r="B25" s="22">
         <v>2</v>
       </c>
-      <c r="C25" s="134">
-        <v>0</v>
-      </c>
-      <c r="D25" s="94">
+      <c r="C25" s="107">
+        <v>2</v>
+      </c>
+      <c r="D25" s="67">
         <v>1</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="62">
         <v>1</v>
       </c>
       <c r="F25" s="18">
-        <v>28</v>
-      </c>
-      <c r="G25" s="139">
-        <v>10</v>
-      </c>
-      <c r="H25" s="139">
-        <v>10</v>
-      </c>
-      <c r="I25" s="144">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G25" s="112">
+        <v>15</v>
+      </c>
+      <c r="H25" s="112">
+        <v>14</v>
+      </c>
+      <c r="I25" s="117">
+        <v>1</v>
       </c>
       <c r="J25" s="19"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="123"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="96"/>
       <c r="N25" s="20"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="133"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="106"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="71"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="14">
         <v>10</v>
       </c>
-      <c r="G26" s="137">
+      <c r="G26" s="110">
         <v>10</v>
       </c>
-      <c r="H26" s="137">
+      <c r="H26" s="110">
         <v>10</v>
       </c>
-      <c r="I26" s="142">
+      <c r="I26" s="115">
         <v>0</v>
       </c>
       <c r="J26" s="17">
         <v>63</v>
       </c>
-      <c r="K26" s="111">
+      <c r="K26" s="84">
         <v>63</v>
       </c>
-      <c r="L26" s="111">
+      <c r="L26" s="84">
         <v>63</v>
       </c>
-      <c r="M26" s="121">
+      <c r="M26" s="94">
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="131"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="104"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="58"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -2419,17 +3441,17 @@
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="45">
         <f>SUM(B5:B26)</f>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ref="C28:Q28" si="0">SUM(C5:C26)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
@@ -2437,31 +3459,31 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="0"/>
@@ -2498,933 +3520,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.7109375" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="39">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="81" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="39">
         <v>3</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="125">
         <v>5</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="101">
-        <v>11</v>
-      </c>
-      <c r="G5" s="96">
-        <v>6</v>
-      </c>
-      <c r="H5" s="96">
-        <v>3</v>
-      </c>
-      <c r="I5" s="96">
-        <v>2</v>
-      </c>
-      <c r="J5" s="114">
-        <v>3</v>
-      </c>
-      <c r="K5" s="109">
-        <v>0</v>
-      </c>
-      <c r="L5" s="109">
-        <v>2</v>
-      </c>
-      <c r="M5" s="119">
-        <v>1</v>
-      </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="129"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="115">
-        <v>9</v>
-      </c>
-      <c r="K6" s="110">
-        <v>0</v>
-      </c>
-      <c r="L6" s="110">
-        <v>9</v>
-      </c>
-      <c r="M6" s="120">
-        <v>0</v>
-      </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="130"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="C2" s="125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="119">
+        <v>80</v>
+      </c>
+      <c r="C3" s="119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="119">
         <v>12</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="102">
+      <c r="C4" s="119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="119">
         <v>18</v>
       </c>
-      <c r="G7" s="97">
-        <v>6</v>
-      </c>
-      <c r="H7" s="97">
-        <v>12</v>
-      </c>
-      <c r="I7" s="97">
-        <v>0</v>
-      </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="130"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="74">
-        <v>3</v>
-      </c>
-      <c r="C8" s="64">
-        <v>0</v>
-      </c>
-      <c r="D8" s="64">
-        <v>3</v>
-      </c>
-      <c r="E8" s="75">
-        <v>0</v>
-      </c>
-      <c r="F8" s="102">
-        <v>11</v>
-      </c>
-      <c r="G8" s="97">
-        <v>0</v>
-      </c>
-      <c r="H8" s="97">
-        <v>6</v>
-      </c>
-      <c r="I8" s="97">
-        <v>5</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="130"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="74">
-        <v>2</v>
-      </c>
-      <c r="C9" s="64">
-        <v>2</v>
-      </c>
-      <c r="D9" s="64">
-        <v>0</v>
-      </c>
-      <c r="E9" s="75">
-        <v>0</v>
-      </c>
-      <c r="F9" s="102">
-        <v>9</v>
-      </c>
-      <c r="G9" s="97">
-        <v>3</v>
-      </c>
-      <c r="H9" s="97">
-        <v>3</v>
-      </c>
-      <c r="I9" s="97">
-        <v>4</v>
-      </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="130"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="102">
-        <v>11</v>
-      </c>
-      <c r="G10" s="97">
-        <v>0</v>
-      </c>
-      <c r="H10" s="97">
-        <v>10</v>
-      </c>
-      <c r="I10" s="97">
-        <v>1</v>
-      </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="130"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="102">
-        <v>11</v>
-      </c>
-      <c r="G11" s="97">
-        <v>11</v>
-      </c>
-      <c r="H11" s="97">
-        <v>0</v>
-      </c>
-      <c r="I11" s="97">
-        <v>0</v>
-      </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="130"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="102">
-        <v>14</v>
-      </c>
-      <c r="G12" s="97">
-        <v>0</v>
-      </c>
-      <c r="H12" s="97">
-        <v>8</v>
-      </c>
-      <c r="I12" s="97">
-        <v>6</v>
-      </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="130"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="102">
-        <v>3</v>
-      </c>
-      <c r="G13" s="97">
-        <v>0</v>
-      </c>
-      <c r="H13" s="97">
-        <v>3</v>
-      </c>
-      <c r="I13" s="97">
-        <v>0</v>
-      </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="130"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="115">
-        <v>4</v>
-      </c>
-      <c r="K14" s="110">
-        <v>0</v>
-      </c>
-      <c r="L14" s="110">
-        <v>4</v>
-      </c>
-      <c r="M14" s="120">
-        <v>0</v>
-      </c>
-      <c r="N14" s="48"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="130"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="102">
-        <v>10</v>
-      </c>
-      <c r="G15" s="97">
-        <v>0</v>
-      </c>
-      <c r="H15" s="97">
-        <v>6</v>
-      </c>
-      <c r="I15" s="97">
-        <v>4</v>
-      </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="130"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="115">
-        <v>3</v>
-      </c>
-      <c r="K16" s="110">
-        <v>0</v>
-      </c>
-      <c r="L16" s="110">
-        <v>3</v>
-      </c>
-      <c r="M16" s="120">
-        <v>0</v>
-      </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="130"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="102">
-        <v>13</v>
-      </c>
-      <c r="G17" s="97">
-        <v>0</v>
-      </c>
-      <c r="H17" s="97">
-        <v>12</v>
-      </c>
-      <c r="I17" s="97">
-        <v>1</v>
-      </c>
-      <c r="J17" s="115"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="130"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="102">
-        <v>5</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97">
-        <v>0</v>
-      </c>
-      <c r="I18" s="97">
-        <v>0</v>
-      </c>
-      <c r="J18" s="115">
-        <v>10</v>
-      </c>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110">
-        <v>0</v>
-      </c>
-      <c r="M18" s="120">
-        <v>0</v>
-      </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="130"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="74">
-        <v>18</v>
-      </c>
-      <c r="C19" s="64">
-        <v>0</v>
-      </c>
-      <c r="D19" s="64">
-        <v>18</v>
-      </c>
-      <c r="E19" s="75">
-        <v>0</v>
-      </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="130"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="C5" s="119">
         <v>25</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="102">
-        <v>24</v>
-      </c>
-      <c r="G20" s="97">
-        <v>4</v>
-      </c>
-      <c r="H20" s="97">
-        <v>15</v>
-      </c>
-      <c r="I20" s="97">
-        <v>5</v>
-      </c>
-      <c r="J20" s="115">
-        <v>2</v>
-      </c>
-      <c r="K20" s="110">
-        <v>0</v>
-      </c>
-      <c r="L20" s="110">
-        <v>1</v>
-      </c>
-      <c r="M20" s="120">
-        <v>1</v>
-      </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="130"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="100">
-        <v>8</v>
-      </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95">
-        <v>1</v>
-      </c>
-      <c r="I21" s="95">
-        <v>2</v>
-      </c>
-      <c r="J21" s="116">
-        <v>8</v>
-      </c>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111">
-        <v>4</v>
-      </c>
-      <c r="M21" s="121">
-        <v>4</v>
-      </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="131"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="77">
-        <v>22</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65">
-        <v>0</v>
-      </c>
-      <c r="E22" s="78">
-        <v>0</v>
-      </c>
-      <c r="F22" s="103">
-        <v>18</v>
-      </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98">
-        <v>0</v>
-      </c>
-      <c r="I22" s="98">
-        <v>0</v>
-      </c>
-      <c r="J22" s="117">
-        <v>1</v>
-      </c>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112">
-        <v>0</v>
-      </c>
-      <c r="M22" s="122">
-        <v>0</v>
-      </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="132"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="103">
-        <v>3</v>
-      </c>
-      <c r="G23" s="98">
-        <v>0</v>
-      </c>
-      <c r="H23" s="98">
-        <v>3</v>
-      </c>
-      <c r="I23" s="98">
-        <v>0</v>
-      </c>
-      <c r="J23" s="117">
-        <v>4</v>
-      </c>
-      <c r="K23" s="112">
-        <v>0</v>
-      </c>
-      <c r="L23" s="112">
-        <v>4</v>
-      </c>
-      <c r="M23" s="122">
-        <v>0</v>
-      </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="132"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="117">
-        <v>9</v>
-      </c>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112">
-        <v>9</v>
-      </c>
-      <c r="M24" s="122">
-        <v>0</v>
-      </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="132"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="79">
-        <v>2</v>
-      </c>
-      <c r="C25" s="62">
-        <v>0</v>
-      </c>
-      <c r="D25" s="66">
-        <v>1</v>
-      </c>
-      <c r="E25" s="80">
-        <v>1</v>
-      </c>
-      <c r="F25" s="104">
-        <v>28</v>
-      </c>
-      <c r="G25" s="99">
-        <v>0</v>
-      </c>
-      <c r="H25" s="99">
-        <v>26</v>
-      </c>
-      <c r="I25" s="99">
-        <v>2</v>
-      </c>
-      <c r="J25" s="118"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="133"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="100">
-        <v>10</v>
-      </c>
-      <c r="G26" s="95">
-        <v>0</v>
-      </c>
-      <c r="H26" s="95">
-        <v>10</v>
-      </c>
-      <c r="I26" s="95">
-        <v>0</v>
-      </c>
-      <c r="J26" s="116">
-        <v>63</v>
-      </c>
-      <c r="K26" s="111">
-        <v>0</v>
-      </c>
-      <c r="L26" s="111">
-        <v>63</v>
-      </c>
-      <c r="M26" s="121">
-        <v>0</v>
-      </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="131"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="58">
-        <f>SUM(B5:B26)</f>
-        <v>47</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6">
-        <f>SUM(D5:D26)</f>
-        <v>22</v>
-      </c>
-      <c r="E28" s="6">
-        <f>SUM(E5:E26)</f>
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <f>SUM(F5:F26)</f>
-        <v>207</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <f>SUM(H5:H26)</f>
-        <v>118</v>
-      </c>
-      <c r="I28" s="6">
-        <f>SUM(I5:I26)</f>
-        <v>32</v>
-      </c>
-      <c r="J28" s="6">
-        <f>SUM(J5:J26)</f>
-        <v>116</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <f>SUM(L5:L26)</f>
-        <v>99</v>
-      </c>
-      <c r="M28" s="6">
-        <f>SUM(M5:M26)</f>
-        <v>6</v>
-      </c>
-      <c r="N28" s="6">
-        <f>SUM(N5:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6">
-        <f>SUM(P5:P26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="11">
-        <f>SUM(Q5:Q26)</f>
-        <v>0</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="119">
+        <v>0</v>
+      </c>
+      <c r="C6" s="119">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="128" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Tests Progress.xlsx
+++ b/Documents/Tests Progress.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyudmil\Documents\GitHub\Additional-Ressources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Emi\GitHub\Team-Griffin-SQA-2015\Additional-Ressources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="8775" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Tests Status" sheetId="2" r:id="rId1"/>
     <sheet name="Automated Tests Status" sheetId="1" r:id="rId2"/>
     <sheet name="Bugs by Module" sheetId="4" r:id="rId3"/>
-    <sheet name="Test Cases by Team Member" sheetId="3" r:id="rId4"/>
-    <sheet name="Test Framework Updates" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Framework Updates" sheetId="5" r:id="rId4"/>
+    <sheet name="Test Cases by Team Member" sheetId="3" r:id="rId5"/>
+    <sheet name="SikuliTestsReport" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
   <si>
     <t>Module</t>
   </si>
@@ -176,12 +177,18 @@
   </si>
   <si>
     <t>Week #8</t>
+  </si>
+  <si>
+    <t>Week #9</t>
+  </si>
+  <si>
+    <t>Candidate Entry Exams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1238,6 +1245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1628,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
@@ -1655,57 +1665,57 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="134" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143" t="s">
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="146"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
@@ -2565,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,57 +2602,57 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148"/>
-      <c r="B3" s="150" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154" t="s">
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="146" t="s">
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
@@ -3536,12 +3546,12 @@
       <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="120"/>
@@ -3683,91 +3693,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="125">
-        <v>5</v>
-      </c>
-      <c r="C2" s="125">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="119">
-        <v>80</v>
-      </c>
-      <c r="C3" s="119">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="119">
-        <v>12</v>
-      </c>
-      <c r="C4" s="119">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="119">
-        <v>18</v>
-      </c>
-      <c r="C5" s="119">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="119">
-        <v>0</v>
-      </c>
-      <c r="C6" s="119">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3811,4 +3736,871 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="125">
+        <v>5</v>
+      </c>
+      <c r="C2" s="125">
+        <v>15</v>
+      </c>
+      <c r="D2" s="125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="119">
+        <v>80</v>
+      </c>
+      <c r="C3" s="119">
+        <v>21</v>
+      </c>
+      <c r="D3" s="119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="119">
+        <v>12</v>
+      </c>
+      <c r="C4" s="119">
+        <v>20</v>
+      </c>
+      <c r="D4" s="119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="119">
+        <v>18</v>
+      </c>
+      <c r="C5" s="119">
+        <v>25</v>
+      </c>
+      <c r="D5" s="119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="119">
+        <v>0</v>
+      </c>
+      <c r="C6" s="119">
+        <v>38</v>
+      </c>
+      <c r="D6" s="119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="119">
+        <f>SUM(B2:B6)</f>
+        <v>115</v>
+      </c>
+      <c r="C7" s="119">
+        <f>SUM(C2:C6)</f>
+        <v>119</v>
+      </c>
+      <c r="D7" s="119">
+        <f>SUM(D2:D6)</f>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="134"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="148"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="150"/>
+      <c r="B3" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="102"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="103"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="103"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="41">
+        <v>2</v>
+      </c>
+      <c r="C7" s="65">
+        <v>2</v>
+      </c>
+      <c r="D7" s="65">
+        <v>2</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="103"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="103"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="103"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="103"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="103"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="103"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="103"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" s="109">
+        <v>10</v>
+      </c>
+      <c r="H14" s="109">
+        <v>8</v>
+      </c>
+      <c r="I14" s="114">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="103"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="103"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="13">
+        <v>3</v>
+      </c>
+      <c r="G16" s="109">
+        <v>3</v>
+      </c>
+      <c r="H16" s="109">
+        <v>3</v>
+      </c>
+      <c r="I16" s="114"/>
+      <c r="J16" s="16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="83">
+        <v>3</v>
+      </c>
+      <c r="L16" s="83">
+        <v>3</v>
+      </c>
+      <c r="M16" s="93"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="103"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="13">
+        <v>4</v>
+      </c>
+      <c r="G17" s="109">
+        <v>4</v>
+      </c>
+      <c r="H17" s="109">
+        <v>4</v>
+      </c>
+      <c r="I17" s="114"/>
+      <c r="J17" s="16">
+        <v>2</v>
+      </c>
+      <c r="K17" s="83">
+        <v>2</v>
+      </c>
+      <c r="L17" s="83">
+        <v>2</v>
+      </c>
+      <c r="M17" s="93"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="103"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="103"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="109">
+        <v>2</v>
+      </c>
+      <c r="H19" s="109">
+        <v>2</v>
+      </c>
+      <c r="I19" s="114"/>
+      <c r="J19" s="16">
+        <v>2</v>
+      </c>
+      <c r="K19" s="83">
+        <v>2</v>
+      </c>
+      <c r="L19" s="83">
+        <v>2</v>
+      </c>
+      <c r="M19" s="93"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="103"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="104"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="105"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="105"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="105"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="129"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="112">
+        <v>2</v>
+      </c>
+      <c r="H24" s="112">
+        <v>2</v>
+      </c>
+      <c r="I24" s="117"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="106"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="17">
+        <v>17</v>
+      </c>
+      <c r="K25" s="84">
+        <v>17</v>
+      </c>
+      <c r="L25" s="84">
+        <v>17</v>
+      </c>
+      <c r="M25" s="94"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="104"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="45">
+        <f>SUM(B4:B25)</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:Q27" si="0">SUM(C4:C25)</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/Tests Progress.xlsx
+++ b/Documents/Tests Progress.xlsx
@@ -182,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -890,11 +898,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,18 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,7 +1232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,73 +1261,96 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1655,103 +1686,103 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="134" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="128"/>
+    </row>
+    <row r="3" spans="1:17" s="141" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="125"/>
+      <c r="B3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143" t="s">
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="145"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
-      <c r="B4" s="78" t="s">
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="157"/>
+    </row>
+    <row r="4" spans="1:17" s="141" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="126"/>
+      <c r="B4" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="145" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1775,22 +1806,22 @@
       <c r="I5" s="69">
         <v>2</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="83">
         <v>3</v>
       </c>
-      <c r="K5" s="82">
-        <v>0</v>
-      </c>
-      <c r="L5" s="82">
+      <c r="K5" s="78">
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
         <v>2</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="88">
         <v>1</v>
       </c>
       <c r="N5" s="33"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -1804,22 +1835,22 @@
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
-      <c r="J6" s="88">
+      <c r="J6" s="84">
         <v>9</v>
       </c>
-      <c r="K6" s="83">
-        <v>0</v>
-      </c>
-      <c r="L6" s="83">
+      <c r="K6" s="79">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
         <v>9</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="89">
         <v>0</v>
       </c>
       <c r="N6" s="35"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="103"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -1841,14 +1872,14 @@
       <c r="I7" s="70">
         <v>0</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="93"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="35"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="103"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -1878,14 +1909,14 @@
       <c r="I8" s="70">
         <v>5</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="93"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="35"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="103"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -1915,14 +1946,14 @@
       <c r="I9" s="70">
         <v>4</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="93"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="35"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="103"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -1944,14 +1975,14 @@
       <c r="I10" s="70">
         <v>1</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="93"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="35"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="103"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -1973,14 +2004,14 @@
       <c r="I11" s="70">
         <v>0</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="93"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="35"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="103"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
@@ -2002,14 +2033,14 @@
       <c r="I12" s="70">
         <v>6</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="93"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="35"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="103"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2031,14 +2062,14 @@
       <c r="I13" s="70">
         <v>0</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="93"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="35"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="103"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -2052,22 +2083,22 @@
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
-      <c r="J14" s="88">
+      <c r="J14" s="84">
         <v>4</v>
       </c>
-      <c r="K14" s="83">
-        <v>0</v>
-      </c>
-      <c r="L14" s="83">
+      <c r="K14" s="79">
+        <v>0</v>
+      </c>
+      <c r="L14" s="79">
         <v>4</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="89">
         <v>0</v>
       </c>
       <c r="N14" s="35"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="103"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -2089,14 +2120,14 @@
       <c r="I15" s="70">
         <v>4</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="93"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="35"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="103"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -2110,22 +2141,22 @@
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
-      <c r="J16" s="88">
+      <c r="J16" s="84">
         <v>3</v>
       </c>
-      <c r="K16" s="83">
-        <v>0</v>
-      </c>
-      <c r="L16" s="83">
+      <c r="K16" s="79">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
         <v>3</v>
       </c>
-      <c r="M16" s="93">
+      <c r="M16" s="89">
         <v>0</v>
       </c>
       <c r="N16" s="35"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="103"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="99"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -2147,14 +2178,14 @@
       <c r="I17" s="70">
         <v>1</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="93"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="35"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="103"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="99"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2174,20 +2205,20 @@
       <c r="I18" s="70">
         <v>0</v>
       </c>
-      <c r="J18" s="88">
+      <c r="J18" s="84">
         <v>13</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83">
+      <c r="K18" s="79"/>
+      <c r="L18" s="79">
         <v>2</v>
       </c>
-      <c r="M18" s="93">
+      <c r="M18" s="89">
         <v>1</v>
       </c>
       <c r="N18" s="35"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="103"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="99"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -2209,14 +2240,14 @@
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="93"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="103"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -2238,22 +2269,22 @@
       <c r="I20" s="70">
         <v>5</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="84">
         <v>2</v>
       </c>
-      <c r="K20" s="83">
-        <v>0</v>
-      </c>
-      <c r="L20" s="83">
+      <c r="K20" s="79">
+        <v>0</v>
+      </c>
+      <c r="L20" s="79">
         <v>1</v>
       </c>
-      <c r="M20" s="93">
+      <c r="M20" s="89">
         <v>1</v>
       </c>
       <c r="N20" s="35"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="103"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="99"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -2273,20 +2304,20 @@
       <c r="I21" s="68">
         <v>2</v>
       </c>
-      <c r="J21" s="89">
+      <c r="J21" s="85">
         <v>8</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84">
+      <c r="K21" s="80"/>
+      <c r="L21" s="80">
         <v>4</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="90">
         <v>4</v>
       </c>
       <c r="N21" s="38"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="104"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="100"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -2316,22 +2347,22 @@
       <c r="I22" s="71">
         <v>7</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="86">
         <v>5</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="81">
         <v>5</v>
       </c>
-      <c r="L22" s="85">
+      <c r="L22" s="81">
         <v>5</v>
       </c>
-      <c r="M22" s="95">
+      <c r="M22" s="91">
         <v>0</v>
       </c>
       <c r="N22" s="36"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="105"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -2353,22 +2384,22 @@
       <c r="I23" s="71">
         <v>0</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="86">
         <v>4</v>
       </c>
-      <c r="K23" s="85">
-        <v>0</v>
-      </c>
-      <c r="L23" s="85">
+      <c r="K23" s="81">
+        <v>0</v>
+      </c>
+      <c r="L23" s="81">
         <v>4</v>
       </c>
-      <c r="M23" s="95">
+      <c r="M23" s="91">
         <v>0</v>
       </c>
       <c r="N23" s="36"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="105"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="101"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
@@ -2382,20 +2413,20 @@
       <c r="G24" s="71"/>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
-      <c r="J24" s="90">
+      <c r="J24" s="86">
         <v>9</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85">
+      <c r="K24" s="81"/>
+      <c r="L24" s="81">
         <v>9</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="91">
         <v>0</v>
       </c>
       <c r="N24" s="36"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="105"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="101"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
@@ -2425,14 +2456,14 @@
       <c r="I25" s="72">
         <v>0</v>
       </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="96"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="92"/>
       <c r="N25" s="37"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="106"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="102"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
@@ -2454,22 +2485,22 @@
       <c r="I26" s="68">
         <v>0</v>
       </c>
-      <c r="J26" s="89">
+      <c r="J26" s="85">
         <v>63</v>
       </c>
-      <c r="K26" s="84">
-        <v>0</v>
-      </c>
-      <c r="L26" s="84">
+      <c r="K26" s="80">
+        <v>0</v>
+      </c>
+      <c r="L26" s="80">
         <v>63</v>
       </c>
-      <c r="M26" s="94">
+      <c r="M26" s="90">
         <v>0</v>
       </c>
       <c r="N26" s="38"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="104"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="100"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -2592,103 +2623,103 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148"/>
-      <c r="B3" s="150" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="128"/>
+    </row>
+    <row r="3" spans="1:17" s="141" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="129"/>
+      <c r="B3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154" t="s">
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="146" t="s">
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="147"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
-      <c r="B4" s="78" t="s">
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="140"/>
+    </row>
+    <row r="4" spans="1:17" s="141" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="130"/>
+      <c r="B4" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="145" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2703,31 +2734,31 @@
       <c r="F5" s="31">
         <v>11</v>
       </c>
-      <c r="G5" s="108">
-        <v>0</v>
-      </c>
-      <c r="H5" s="108">
-        <v>0</v>
-      </c>
-      <c r="I5" s="113">
+      <c r="G5" s="104">
+        <v>0</v>
+      </c>
+      <c r="H5" s="104">
+        <v>0</v>
+      </c>
+      <c r="I5" s="109">
         <v>0</v>
       </c>
       <c r="J5" s="32">
         <v>3</v>
       </c>
-      <c r="K5" s="82">
-        <v>0</v>
-      </c>
-      <c r="L5" s="82">
-        <v>0</v>
-      </c>
-      <c r="M5" s="92">
+      <c r="K5" s="78">
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
+        <v>0</v>
+      </c>
+      <c r="M5" s="88">
         <v>0</v>
       </c>
       <c r="N5" s="34"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2738,25 +2769,25 @@
       <c r="D6" s="65"/>
       <c r="E6" s="57"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="114"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="16">
         <v>9</v>
       </c>
-      <c r="K6" s="83">
-        <v>0</v>
-      </c>
-      <c r="L6" s="83">
-        <v>0</v>
-      </c>
-      <c r="M6" s="93">
+      <c r="K6" s="79">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0</v>
+      </c>
+      <c r="M6" s="89">
         <v>0</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="103"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -2769,23 +2800,23 @@
       <c r="F7" s="13">
         <v>18</v>
       </c>
-      <c r="G7" s="109">
-        <v>0</v>
-      </c>
-      <c r="H7" s="109">
-        <v>0</v>
-      </c>
-      <c r="I7" s="114">
+      <c r="G7" s="105">
+        <v>0</v>
+      </c>
+      <c r="H7" s="105">
+        <v>0</v>
+      </c>
+      <c r="I7" s="110">
         <v>0</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="93"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="103"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2806,23 +2837,23 @@
       <c r="F8" s="13">
         <v>11</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="105">
         <v>3</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="105">
         <v>3</v>
       </c>
-      <c r="I8" s="114">
+      <c r="I8" s="110">
         <v>0</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="93"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="103"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2843,23 +2874,23 @@
       <c r="F9" s="13">
         <v>9</v>
       </c>
-      <c r="G9" s="109">
-        <v>0</v>
-      </c>
-      <c r="H9" s="109">
-        <v>0</v>
-      </c>
-      <c r="I9" s="114">
+      <c r="G9" s="105">
+        <v>0</v>
+      </c>
+      <c r="H9" s="105">
+        <v>0</v>
+      </c>
+      <c r="I9" s="110">
         <v>0</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="93"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="103"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -2872,23 +2903,23 @@
       <c r="F10" s="13">
         <v>11</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="105">
         <v>9</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="105">
         <v>9</v>
       </c>
-      <c r="I10" s="114">
+      <c r="I10" s="110">
         <v>0</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="93"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="103"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -2901,23 +2932,23 @@
       <c r="F11" s="13">
         <v>11</v>
       </c>
-      <c r="G11" s="109">
-        <v>0</v>
-      </c>
-      <c r="H11" s="109">
-        <v>0</v>
-      </c>
-      <c r="I11" s="114">
+      <c r="G11" s="105">
+        <v>0</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0</v>
+      </c>
+      <c r="I11" s="110">
         <v>0</v>
       </c>
       <c r="J11" s="16"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="93"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="103"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -2930,23 +2961,23 @@
       <c r="F12" s="13">
         <v>14</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="105">
         <v>9</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="105">
         <v>6</v>
       </c>
-      <c r="I12" s="114">
+      <c r="I12" s="110">
         <v>3</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="93"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="103"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -2959,23 +2990,23 @@
       <c r="F13" s="13">
         <v>3</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="105">
         <v>3</v>
       </c>
-      <c r="H13" s="109">
+      <c r="H13" s="105">
         <v>3</v>
       </c>
-      <c r="I13" s="114">
+      <c r="I13" s="110">
         <v>0</v>
       </c>
       <c r="J13" s="16"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="93"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="103"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -2986,25 +3017,25 @@
       <c r="D14" s="65"/>
       <c r="E14" s="57"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="114"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="16">
         <v>4</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="79">
         <v>4</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L14" s="79">
         <v>4</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="89">
         <v>0</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="103"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3017,23 +3048,23 @@
       <c r="F15" s="13">
         <v>10</v>
       </c>
-      <c r="G15" s="109">
-        <v>0</v>
-      </c>
-      <c r="H15" s="109">
-        <v>0</v>
-      </c>
-      <c r="I15" s="114">
+      <c r="G15" s="105">
+        <v>0</v>
+      </c>
+      <c r="H15" s="105">
+        <v>0</v>
+      </c>
+      <c r="I15" s="110">
         <v>0</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="93"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="103"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -3044,25 +3075,25 @@
       <c r="D16" s="65"/>
       <c r="E16" s="57"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="114"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="16">
         <v>3</v>
       </c>
-      <c r="K16" s="83">
-        <v>0</v>
-      </c>
-      <c r="L16" s="83">
-        <v>0</v>
-      </c>
-      <c r="M16" s="93">
+      <c r="K16" s="79">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
+        <v>0</v>
+      </c>
+      <c r="M16" s="89">
         <v>0</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="103"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="99"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -3075,23 +3106,23 @@
       <c r="F17" s="13">
         <v>13</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="105">
         <v>11</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="105">
         <v>11</v>
       </c>
-      <c r="I17" s="114">
+      <c r="I17" s="110">
         <v>0</v>
       </c>
       <c r="J17" s="16"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="93"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="103"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="99"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -3104,31 +3135,31 @@
       <c r="F18" s="13">
         <v>8</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="105">
         <v>8</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="105">
         <v>3</v>
       </c>
-      <c r="I18" s="114">
+      <c r="I18" s="110">
         <v>0</v>
       </c>
       <c r="J18" s="16">
         <v>10</v>
       </c>
-      <c r="K18" s="83">
-        <v>0</v>
-      </c>
-      <c r="L18" s="83">
-        <v>0</v>
-      </c>
-      <c r="M18" s="93">
+      <c r="K18" s="79">
+        <v>0</v>
+      </c>
+      <c r="L18" s="79">
+        <v>0</v>
+      </c>
+      <c r="M18" s="89">
         <v>0</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="103"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="99"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -3147,17 +3178,17 @@
         <v>0</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="114"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="110"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="93"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="103"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -3170,31 +3201,31 @@
       <c r="F20" s="13">
         <v>24</v>
       </c>
-      <c r="G20" s="109">
+      <c r="G20" s="105">
         <v>20</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="105">
         <v>15</v>
       </c>
-      <c r="I20" s="114">
+      <c r="I20" s="110">
         <v>5</v>
       </c>
       <c r="J20" s="16">
         <v>2</v>
       </c>
-      <c r="K20" s="83">
+      <c r="K20" s="79">
         <v>2</v>
       </c>
-      <c r="L20" s="83">
+      <c r="L20" s="79">
         <v>1</v>
       </c>
-      <c r="M20" s="93">
+      <c r="M20" s="89">
         <v>1</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="103"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="99"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -3207,31 +3238,31 @@
       <c r="F21" s="14">
         <v>8</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="106">
         <v>6</v>
       </c>
-      <c r="H21" s="110">
+      <c r="H21" s="106">
         <v>4</v>
       </c>
-      <c r="I21" s="115">
+      <c r="I21" s="111">
         <v>2</v>
       </c>
       <c r="J21" s="17">
         <v>8</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="80">
         <v>8</v>
       </c>
-      <c r="L21" s="84">
+      <c r="L21" s="80">
         <v>4</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="90">
         <v>4</v>
       </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="104"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="100"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -3252,31 +3283,31 @@
       <c r="F22" s="12">
         <v>27</v>
       </c>
-      <c r="G22" s="111">
+      <c r="G22" s="107">
         <v>20</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="107">
         <v>20</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="112">
         <v>0</v>
       </c>
       <c r="J22" s="15">
         <v>5</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="81">
         <v>5</v>
       </c>
-      <c r="L22" s="85">
+      <c r="L22" s="81">
         <v>5</v>
       </c>
-      <c r="M22" s="95">
+      <c r="M22" s="91">
         <v>0</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="105"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -3289,31 +3320,31 @@
       <c r="F23" s="12">
         <v>3</v>
       </c>
-      <c r="G23" s="111">
-        <v>0</v>
-      </c>
-      <c r="H23" s="111">
+      <c r="G23" s="107">
+        <v>0</v>
+      </c>
+      <c r="H23" s="107">
         <v>3</v>
       </c>
-      <c r="I23" s="116">
+      <c r="I23" s="112">
         <v>0</v>
       </c>
       <c r="J23" s="15">
         <v>4</v>
       </c>
-      <c r="K23" s="85">
-        <v>0</v>
-      </c>
-      <c r="L23" s="85">
+      <c r="K23" s="81">
+        <v>0</v>
+      </c>
+      <c r="L23" s="81">
         <v>4</v>
       </c>
-      <c r="M23" s="95">
+      <c r="M23" s="91">
         <v>0</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="105"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="101"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -3324,25 +3355,25 @@
       <c r="D24" s="66"/>
       <c r="E24" s="60"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="116"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="15">
         <v>9</v>
       </c>
-      <c r="K24" s="85">
-        <v>0</v>
-      </c>
-      <c r="L24" s="85">
-        <v>0</v>
-      </c>
-      <c r="M24" s="95">
+      <c r="K24" s="81">
+        <v>0</v>
+      </c>
+      <c r="L24" s="81">
+        <v>0</v>
+      </c>
+      <c r="M24" s="91">
         <v>0</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="105"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="101"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -3351,7 +3382,7 @@
       <c r="B25" s="22">
         <v>2</v>
       </c>
-      <c r="C25" s="107">
+      <c r="C25" s="103">
         <v>2</v>
       </c>
       <c r="D25" s="67">
@@ -3363,23 +3394,23 @@
       <c r="F25" s="18">
         <v>27</v>
       </c>
-      <c r="G25" s="112">
+      <c r="G25" s="108">
         <v>15</v>
       </c>
-      <c r="H25" s="112">
+      <c r="H25" s="108">
         <v>14</v>
       </c>
-      <c r="I25" s="117">
+      <c r="I25" s="113">
         <v>1</v>
       </c>
       <c r="J25" s="19"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="96"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="92"/>
       <c r="N25" s="20"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="106"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="102"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -3392,31 +3423,31 @@
       <c r="F26" s="14">
         <v>10</v>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="106">
         <v>10</v>
       </c>
-      <c r="H26" s="110">
+      <c r="H26" s="106">
         <v>10</v>
       </c>
-      <c r="I26" s="115">
+      <c r="I26" s="111">
         <v>0</v>
       </c>
       <c r="J26" s="17">
         <v>63</v>
       </c>
-      <c r="K26" s="84">
+      <c r="K26" s="80">
         <v>63</v>
       </c>
-      <c r="L26" s="84">
+      <c r="L26" s="80">
         <v>63</v>
       </c>
-      <c r="M26" s="94">
+      <c r="M26" s="90">
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="104"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="100"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -3524,7 +3555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3533,150 +3566,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="156" t="s">
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121" t="s">
+      <c r="A2" s="132"/>
+      <c r="B2" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="116" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="118" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="115"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="118" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="118" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="118" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="115"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="118" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="118" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="115"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="118" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="39">
+      <c r="B10" s="51"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="79">
         <v>1</v>
       </c>
+      <c r="E10" s="115"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="118" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="118" t="s">
         <v>19</v>
       </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="115"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="39">
+      <c r="B13" s="51"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="79">
         <v>3</v>
       </c>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="118" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="118" t="s">
         <v>22</v>
       </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="118" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="115"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="118" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="115"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="118" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="115"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="158" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="160"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="117" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="120"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="117" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="115"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="117" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="115"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="117" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="115"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="117" t="s">
         <v>30</v>
       </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="115"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3696,68 +3816,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="122" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="125">
+      <c r="B2" s="120">
         <v>5</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="120">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="115">
         <v>80</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="115">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="115">
         <v>12</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="115">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="115">
         <v>18</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="115">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="119">
-        <v>0</v>
-      </c>
-      <c r="C6" s="119">
+      <c r="B6" s="115">
+        <v>0</v>
+      </c>
+      <c r="C6" s="115">
         <v>38</v>
       </c>
     </row>
@@ -3779,32 +3899,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="123" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="119" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="114" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="114" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="114" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="114" t="s">
         <v>48</v>
       </c>
     </row>
